--- a/RabiConfig/xlsx/Bgm.xlsx
+++ b/RabiConfig/xlsx/Bgm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\BlackFieldInstruction\RabiConfig\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BlackFieldInstruction\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8768FCA1-B48B-4501-9F49-5C9B7622A04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4BC8A3-B78F-4458-8165-DA670C2C074E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="4635" windowWidth="16605" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>string</t>
   </si>
@@ -46,15 +46,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestBgm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AddressableAssets/Bgm/TestBgm</t>
+    <t>MainScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Bgm/Rank1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Bgm/Rank2.wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Bgm/MainScene.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +431,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="81.25" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
     <col min="4" max="4" width="59.375" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
@@ -423,7 +439,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -456,23 +472,31 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1"/>
     </row>
